--- a/tenis.xlsx
+++ b/tenis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\Git\elementary-AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\Git\decision-tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75E9E88-96B0-484F-A7E3-40B65ABB55F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4166D918-8699-4989-9E3B-6EA6FC2FE7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
